--- a/traits-github.xlsx
+++ b/traits-github.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Ruojun\Desktop\NP返修-12.19之前截止\NP返修\发到github上面的数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8C917B-6FC2-478B-8B3E-8BB5462D082D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA3DD9-0FEE-4593-BC83-45D77B44DFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="traits-species" sheetId="3" r:id="rId1"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>Root branching ratio</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Root branching intensity</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -336,6 +332,10 @@
   </si>
   <si>
     <t>Soil</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes: The results of CV here was calculated by excel, which could be a little bit different from using SPSS. The CV in the main text was calculted throught SPSS.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +540,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +723,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1047,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,105 +1416,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.4140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="T1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,69 +1518,66 @@
         <v>0</v>
       </c>
       <c r="C2" s="7">
+        <v>0.28669375000000002</v>
+      </c>
+      <c r="D2" s="7">
+        <v>24.592774695000003</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.61264236275000006</v>
+      </c>
+      <c r="F2" s="7">
+        <v>29.366054272500001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>34.811025537500001</v>
+      </c>
+      <c r="H2" s="7">
         <v>5.3385462480000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="I2" s="7">
         <v>2.4332732027499997</v>
       </c>
-      <c r="E2" s="7">
+      <c r="J2" s="7">
         <v>0.69331780499999995</v>
       </c>
-      <c r="F2" s="7">
+      <c r="K2" s="7">
         <v>7.7718194510000007</v>
       </c>
-      <c r="G2" s="7">
+      <c r="L2" s="7">
         <v>8.4651372562499994</v>
       </c>
-      <c r="H2" s="7">
+      <c r="M2" s="7">
         <v>62.977705880000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="N2" s="7">
         <v>29.200945090000001</v>
       </c>
-      <c r="J2" s="7">
+      <c r="O2" s="7">
         <v>7.8213490217500006</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.28669375000000002</v>
-      </c>
-      <c r="L2" s="7">
-        <v>24.592774695000003</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0.61264236275000006</v>
-      </c>
-      <c r="N2" s="7">
-        <v>191.58416667500001</v>
-      </c>
-      <c r="O2" s="7">
-        <v>57.047743767499995</v>
-      </c>
       <c r="P2" s="7">
-        <v>34.811025537500001</v>
+        <v>1.33760328</v>
       </c>
       <c r="Q2" s="7">
-        <v>1.33760328</v>
+        <v>0.1233026555</v>
       </c>
       <c r="R2" s="7">
-        <v>0.1233026555</v>
+        <v>0.25989105974999999</v>
       </c>
       <c r="S2" s="7">
-        <v>0.25989105974999999</v>
+        <v>0.43125000000000002</v>
       </c>
       <c r="T2" s="7">
-        <v>0.43125000000000002</v>
+        <v>6.4053304500000005E-2</v>
       </c>
       <c r="U2" s="7">
-        <v>6.4053304500000005E-2</v>
-      </c>
-      <c r="V2" s="7">
         <v>0.59640651749999996</v>
       </c>
+      <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1583,69 +1585,66 @@
         <v>0</v>
       </c>
       <c r="C3" s="7">
+        <v>0.26145000000000002</v>
+      </c>
+      <c r="D3" s="7">
+        <v>35.540699910000001</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.54429577824999997</v>
+      </c>
+      <c r="F3" s="7">
+        <v>12.535240671250001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>36.465542330000005</v>
+      </c>
+      <c r="H3" s="7">
         <v>6.0574428677499998</v>
       </c>
-      <c r="D3" s="7">
+      <c r="I3" s="7">
         <v>2.2215666159999996</v>
       </c>
-      <c r="E3" s="7">
+      <c r="J3" s="7">
         <v>3.1935997205</v>
       </c>
-      <c r="F3" s="7">
+      <c r="K3" s="7">
         <v>8.2790094829999994</v>
       </c>
-      <c r="G3" s="7">
+      <c r="L3" s="7">
         <v>11.472609204500001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="M3" s="7">
         <v>52.383422625000009</v>
       </c>
-      <c r="I3" s="7">
+      <c r="N3" s="7">
         <v>19.700804937499999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="O3" s="7">
         <v>27.915772440000001</v>
       </c>
-      <c r="K3" s="7">
-        <v>0.26145000000000002</v>
-      </c>
-      <c r="L3" s="7">
-        <v>35.540699910000001</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0.54429577824999997</v>
-      </c>
-      <c r="N3" s="7">
-        <v>160.90625</v>
-      </c>
-      <c r="O3" s="7">
-        <v>31.230006545000002</v>
-      </c>
       <c r="P3" s="7">
-        <v>36.465542330000005</v>
+        <v>1.909551872</v>
       </c>
       <c r="Q3" s="7">
-        <v>1.909551872</v>
+        <v>0.119939647</v>
       </c>
       <c r="R3" s="7">
-        <v>0.119939647</v>
+        <v>0.33895098774999999</v>
       </c>
       <c r="S3" s="7">
-        <v>0.33895098774999999</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="T3" s="7">
-        <v>0.67500000000000004</v>
+        <v>6.9306029749999998E-2</v>
       </c>
       <c r="U3" s="7">
-        <v>6.9306029749999998E-2</v>
-      </c>
-      <c r="V3" s="7">
         <v>1.3922682442500001</v>
       </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1653,69 +1652,66 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
+        <v>0.19701249999999998</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49.995272527499999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.71821428575000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.9699806950000003</v>
+      </c>
+      <c r="G4" s="7">
+        <v>12.4016379575</v>
+      </c>
+      <c r="H4" s="7">
         <v>3.1230924929999997</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1.9278324124999999</v>
       </c>
-      <c r="E4" s="7">
+      <c r="J4" s="7">
         <v>0.87102145025</v>
       </c>
-      <c r="F4" s="7">
+      <c r="K4" s="7">
         <v>5.0509249057499996</v>
       </c>
-      <c r="G4" s="7">
+      <c r="L4" s="7">
         <v>5.9219463554999994</v>
       </c>
-      <c r="H4" s="7">
+      <c r="M4" s="7">
         <v>53.542710865000004</v>
       </c>
-      <c r="I4" s="7">
+      <c r="N4" s="7">
         <v>31.594691519999998</v>
       </c>
-      <c r="J4" s="7">
+      <c r="O4" s="7">
         <v>14.8625976125</v>
       </c>
-      <c r="K4" s="7">
-        <v>0.19701249999999998</v>
-      </c>
-      <c r="L4" s="7">
-        <v>49.995272527499999</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0.71821428575000001</v>
-      </c>
-      <c r="N4" s="7">
-        <v>28.192499999999999</v>
-      </c>
-      <c r="O4" s="7">
-        <v>7.17</v>
-      </c>
       <c r="P4" s="7">
-        <v>12.4016379575</v>
+        <v>1.3027117599999998</v>
       </c>
       <c r="Q4" s="7">
-        <v>1.3027117599999998</v>
+        <v>7.4197520749999996E-2</v>
       </c>
       <c r="R4" s="7">
-        <v>7.4197520749999996E-2</v>
+        <v>0.26583366725000002</v>
       </c>
       <c r="S4" s="7">
-        <v>0.26583366725000002</v>
+        <v>0.3</v>
       </c>
       <c r="T4" s="7">
-        <v>0.3</v>
+        <v>7.5798905999999999E-2</v>
       </c>
       <c r="U4" s="7">
-        <v>7.5798905999999999E-2</v>
-      </c>
-      <c r="V4" s="7">
         <v>1.34733521475</v>
       </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1723,69 +1719,66 @@
         <v>0</v>
       </c>
       <c r="C5" s="7">
+        <v>0.13793749999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>92.754583515000007</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.73199800199999998</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6.103708748499999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>21.451406647500001</v>
+      </c>
+      <c r="H5" s="7">
         <v>5.7250766804999991</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>2.4270257317499997</v>
       </c>
-      <c r="E5" s="7">
+      <c r="J5" s="7">
         <v>1.75792012375</v>
       </c>
-      <c r="F5" s="7">
+      <c r="K5" s="7">
         <v>8.1521024114999996</v>
       </c>
-      <c r="G5" s="7">
+      <c r="L5" s="7">
         <v>9.9100225349999995</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
         <v>57.186501502500001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="N5" s="7">
         <v>24.1014856625</v>
       </c>
-      <c r="J5" s="7">
+      <c r="O5" s="7">
         <v>18.712012834999999</v>
       </c>
-      <c r="K5" s="7">
-        <v>0.13793749999999999</v>
-      </c>
-      <c r="L5" s="7">
-        <v>92.754583515000007</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.73199800199999998</v>
-      </c>
-      <c r="N5" s="7">
-        <v>32.844999999999999</v>
-      </c>
-      <c r="O5" s="7">
-        <v>13.734999999999999</v>
-      </c>
       <c r="P5" s="7">
-        <v>21.451406647500001</v>
+        <v>2.3485684079999998</v>
       </c>
       <c r="Q5" s="7">
-        <v>2.3485684079999998</v>
+        <v>8.9027063000000004E-2</v>
       </c>
       <c r="R5" s="7">
-        <v>8.9027063000000004E-2</v>
+        <v>0.28965714050000002</v>
       </c>
       <c r="S5" s="7">
-        <v>0.28965714050000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T5" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.114749451</v>
       </c>
       <c r="U5" s="7">
-        <v>0.114749451</v>
-      </c>
-      <c r="V5" s="7">
         <v>1.3789875602500001</v>
       </c>
+      <c r="V5" s="7"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1793,69 +1786,66 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
+        <v>0.388171875</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20.071431140000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.47049027249999997</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.0709662184999997</v>
+      </c>
+      <c r="G6" s="7">
+        <v>23.571953627499997</v>
+      </c>
+      <c r="H6" s="7">
         <v>9.6314735417499993</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1.1328508910000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="J6" s="7">
         <v>3.761772251</v>
       </c>
-      <c r="F6" s="7">
+      <c r="K6" s="7">
         <v>10.76432443325</v>
       </c>
-      <c r="G6" s="7">
+      <c r="L6" s="7">
         <v>14.526096684999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="M6" s="7">
         <v>65.692446765</v>
       </c>
-      <c r="I6" s="7">
+      <c r="N6" s="7">
         <v>7.9229852927499991</v>
       </c>
-      <c r="J6" s="7">
+      <c r="O6" s="7">
         <v>26.38456794</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.388171875</v>
-      </c>
-      <c r="L6" s="7">
-        <v>20.071431140000001</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0.47049027249999997</v>
-      </c>
-      <c r="N6" s="7">
-        <v>18.844027777500003</v>
-      </c>
-      <c r="O6" s="7">
-        <v>3.5821957477500002</v>
-      </c>
       <c r="P6" s="7">
-        <v>23.571953627499997</v>
+        <v>3.43348606625</v>
       </c>
       <c r="Q6" s="7">
-        <v>3.43348606625</v>
+        <v>5.3601904499999999E-2</v>
       </c>
       <c r="R6" s="7">
-        <v>5.3601904499999999E-2</v>
+        <v>0.32015907450000003</v>
       </c>
       <c r="S6" s="7">
-        <v>0.32015907450000003</v>
+        <v>0.70625000000000004</v>
       </c>
       <c r="T6" s="7">
-        <v>0.70625000000000004</v>
+        <v>0.13903646850000001</v>
       </c>
       <c r="U6" s="7">
-        <v>0.13903646850000001</v>
-      </c>
-      <c r="V6" s="7">
         <v>4.0003870362500002</v>
       </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1863,69 +1853,66 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
+        <v>0.1761375</v>
+      </c>
+      <c r="D7" s="7">
+        <v>69.097010174999994</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.7291291875</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.1188225837500001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>26.446984367500001</v>
+      </c>
+      <c r="H7" s="7">
         <v>6.3324731149999991</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2.5707471827499999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="J7" s="7">
         <v>1.0109945172499999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="K7" s="7">
         <v>8.9032202972500016</v>
       </c>
-      <c r="G7" s="7">
+      <c r="L7" s="7">
         <v>9.9142148142499984</v>
       </c>
-      <c r="H7" s="7">
+      <c r="M7" s="7">
         <v>63.720176107500009</v>
       </c>
-      <c r="I7" s="7">
+      <c r="N7" s="7">
         <v>26.126526032499999</v>
       </c>
-      <c r="J7" s="7">
+      <c r="O7" s="7">
         <v>10.1532978595</v>
       </c>
-      <c r="K7" s="7">
-        <v>0.1761375</v>
-      </c>
-      <c r="L7" s="7">
-        <v>69.097010174999994</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.7291291875</v>
-      </c>
-      <c r="N7" s="7">
-        <v>21.803509614999999</v>
-      </c>
-      <c r="O7" s="7">
-        <v>4.7340700457500002</v>
-      </c>
       <c r="P7" s="7">
-        <v>26.446984367500001</v>
+        <v>1.1250194205000001</v>
       </c>
       <c r="Q7" s="7">
-        <v>1.1250194205000001</v>
+        <v>6.1228372000000003E-2</v>
       </c>
       <c r="R7" s="7">
-        <v>6.1228372000000003E-2</v>
+        <v>0.25427701474999997</v>
       </c>
       <c r="S7" s="7">
-        <v>0.25427701474999997</v>
+        <v>0.3</v>
       </c>
       <c r="T7" s="7">
-        <v>0.3</v>
+        <v>8.2554056749999993E-2</v>
       </c>
       <c r="U7" s="7">
-        <v>8.2554056749999993E-2</v>
-      </c>
-      <c r="V7" s="7">
         <v>1.9735480645000001</v>
       </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1933,69 +1920,66 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
+        <v>0.28463749999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22.935663819999998</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.71863958075000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4.3864818742500002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>15.934480675</v>
+      </c>
+      <c r="H8" s="7">
         <v>12.8387982125</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>2.733794166</v>
       </c>
-      <c r="E8" s="7">
+      <c r="J8" s="7">
         <v>3.2919652964999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="K8" s="7">
         <v>15.57259238</v>
       </c>
-      <c r="G8" s="7">
+      <c r="L8" s="7">
         <v>18.864557675</v>
       </c>
-      <c r="H8" s="7">
+      <c r="M8" s="7">
         <v>67.570951772499996</v>
       </c>
-      <c r="I8" s="7">
+      <c r="N8" s="7">
         <v>14.623986209999998</v>
       </c>
-      <c r="J8" s="7">
+      <c r="O8" s="7">
         <v>17.8050620225</v>
       </c>
-      <c r="K8" s="7">
-        <v>0.28463749999999999</v>
-      </c>
-      <c r="L8" s="7">
-        <v>22.935663819999998</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.71863958075000001</v>
-      </c>
-      <c r="N8" s="7">
-        <v>22.68</v>
-      </c>
-      <c r="O8" s="7">
-        <v>4.3475000000000001</v>
-      </c>
       <c r="P8" s="7">
-        <v>15.934480675</v>
+        <v>3.5491214849999997</v>
       </c>
       <c r="Q8" s="7">
-        <v>3.5491214849999997</v>
+        <v>2.2091498500000001E-2</v>
       </c>
       <c r="R8" s="7">
-        <v>2.2091498500000001E-2</v>
+        <v>0.31502277200000001</v>
       </c>
       <c r="S8" s="7">
-        <v>0.31502277200000001</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="T8" s="7">
-        <v>0.67499999999999993</v>
+        <v>0.11337279675</v>
       </c>
       <c r="U8" s="7">
-        <v>0.11337279675</v>
-      </c>
-      <c r="V8" s="7">
         <v>1.97722833075</v>
       </c>
+      <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2003,69 +1987,66 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
+        <v>0.1421625</v>
+      </c>
+      <c r="D9" s="7">
+        <v>75.528476859999998</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.85618939399999994</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4.4007462239999997</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6.1303267552499996</v>
+      </c>
+      <c r="H9" s="7">
         <v>6.71200962075</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2.3678245855000002</v>
       </c>
-      <c r="E9" s="7">
+      <c r="J9" s="7">
         <v>1.30733539575</v>
       </c>
-      <c r="F9" s="7">
+      <c r="K9" s="7">
         <v>9.07983420475</v>
       </c>
-      <c r="G9" s="7">
+      <c r="L9" s="7">
         <v>10.387169602</v>
       </c>
-      <c r="H9" s="7">
+      <c r="M9" s="7">
         <v>62.831885482499999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="N9" s="7">
         <v>23.027957747499997</v>
       </c>
-      <c r="J9" s="7">
+      <c r="O9" s="7">
         <v>14.14015676975</v>
       </c>
-      <c r="K9" s="7">
-        <v>0.1421625</v>
-      </c>
-      <c r="L9" s="7">
-        <v>75.528476859999998</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.85618939399999994</v>
-      </c>
-      <c r="N9" s="7">
-        <v>17.782499999999999</v>
-      </c>
-      <c r="O9" s="7">
-        <v>7.0275000000000007</v>
-      </c>
       <c r="P9" s="7">
-        <v>6.1303267552499996</v>
+        <v>2.4798375894999998</v>
       </c>
       <c r="Q9" s="7">
-        <v>2.4798375894999998</v>
+        <v>3.0391650999999999E-2</v>
       </c>
       <c r="R9" s="7">
-        <v>3.0391650999999999E-2</v>
+        <v>0.30462014574999996</v>
       </c>
       <c r="S9" s="7">
-        <v>0.30462014574999996</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="T9" s="7">
-        <v>0.57499999999999996</v>
+        <v>0.12378475799999999</v>
       </c>
       <c r="U9" s="7">
-        <v>0.12378475799999999</v>
-      </c>
-      <c r="V9" s="7">
         <v>1.6019144045</v>
       </c>
+      <c r="V9" s="7"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2087,7 +2068,6 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2097,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272D1AC6-F46A-451A-B48E-129007ABF827}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2110,63 +2090,67 @@
     <col min="3" max="6" width="8.6640625" style="10"/>
     <col min="7" max="7" width="2.25" style="10" customWidth="1"/>
     <col min="8" max="11" width="8.6640625" style="10"/>
+    <col min="13" max="13" width="136.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="H1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="M2" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="11">
         <v>0.13793749999999999</v>
@@ -2194,12 +2178,12 @@
         <v>39.002184439888751</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11">
         <v>24.592774695000003</v>
@@ -2227,12 +2211,12 @@
         <v>54.417525768881234</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="11">
         <v>0.54429577824999997</v>
@@ -2260,45 +2244,45 @@
         <v>20.14586808474386</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="11">
-        <v>28.192499999999999</v>
+        <v>4.9699806950000003</v>
       </c>
       <c r="D6" s="11">
-        <v>191.58416667500001</v>
+        <v>29.366054272500001</v>
       </c>
       <c r="E6" s="11">
-        <v>103.38197916875001</v>
+        <v>13.243746096812501</v>
       </c>
       <c r="F6" s="11">
-        <v>71.273975823235574</v>
+        <v>73.582483774327542</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
-        <v>17.782499999999999</v>
+        <v>4.0709662184999997</v>
       </c>
       <c r="I6" s="11">
-        <v>22.68</v>
+        <v>4.4007462239999997</v>
       </c>
       <c r="J6" s="11">
-        <v>20.277509348125001</v>
+        <v>4.2442542251250002</v>
       </c>
       <c r="K6" s="11">
-        <v>9.9797582509636875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+        <v>3.5436072544632151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C7" s="11">
         <v>12.4016379575</v>
@@ -2326,12 +2310,12 @@
         <v>43.654181164184678</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="11">
         <v>5.9219463554999994</v>
@@ -2359,12 +2343,12 @@
         <v>26.952562474745349</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="11">
         <v>3.1230924929999997</v>
@@ -2392,12 +2376,12 @@
         <v>29.49234180778717</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="11">
         <v>1.9278324124999999</v>
@@ -2425,12 +2409,12 @@
         <v>28.635213375266698</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11">
         <v>0.69331780499999995</v>
@@ -2458,12 +2442,12 @@
         <v>51.217308136284011</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11">
         <v>52.383422625000009</v>
@@ -2491,12 +2475,12 @@
         <v>2.8198893386333106</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="11">
         <v>19.700804937499999</v>
@@ -2524,12 +2508,12 @@
         <v>39.863438943779386</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="13">
         <v>7.8213490217500006</v>
@@ -2559,60 +2543,60 @@
     </row>
     <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="H18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="11">
         <v>1.3027117599999998</v>
@@ -2642,10 +2626,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="11">
         <v>7.4197520749999996E-2</v>
@@ -2675,10 +2659,10 @@
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="11">
         <v>0.25989105974999999</v>
@@ -2708,10 +2692,10 @@
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11">
         <v>0.3</v>
@@ -2741,10 +2725,10 @@
     </row>
     <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="11">
         <v>6.4053304500000005E-2</v>
@@ -2774,10 +2758,10 @@
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="13">
         <v>0.59640651749999996</v>
@@ -2826,7 +2810,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2838,16 +2822,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
@@ -2855,13 +2839,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
@@ -2869,13 +2853,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.5" x14ac:dyDescent="0.3">
@@ -2883,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.5" x14ac:dyDescent="0.3">
@@ -2897,13 +2881,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
@@ -2911,35 +2895,35 @@
         <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.5" x14ac:dyDescent="0.3">
@@ -2947,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.5" x14ac:dyDescent="0.3">
@@ -2955,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.5" x14ac:dyDescent="0.3">
@@ -2963,15 +2947,15 @@
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
@@ -2979,7 +2963,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
@@ -2987,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
